--- a/natmiOut/OldD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Itgb2</t>
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="H2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="I2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.64557892982294</v>
+        <v>4.713375</v>
       </c>
       <c r="N2">
-        <v>3.64557892982294</v>
+        <v>9.42675</v>
       </c>
       <c r="O2">
-        <v>0.0519203050101867</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P2">
-        <v>0.0519203050101867</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q2">
-        <v>1.186490584558662</v>
+        <v>1.746361998</v>
       </c>
       <c r="R2">
-        <v>1.186490584558662</v>
+        <v>6.985447992</v>
       </c>
       <c r="S2">
-        <v>7.631570797169817E-05</v>
+        <v>9.157120851632628E-05</v>
       </c>
       <c r="T2">
-        <v>7.631570797169817E-05</v>
+        <v>4.581982152420715E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="H3">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="I3">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J3">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.079904035637</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N3">
-        <v>39.079904035637</v>
+        <v>129.257158</v>
       </c>
       <c r="O3">
-        <v>0.5565756705198114</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P3">
-        <v>0.5565756705198114</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q3">
-        <v>12.71895056349565</v>
+        <v>15.963776041632</v>
       </c>
       <c r="R3">
-        <v>12.71895056349565</v>
+        <v>95.782656249792</v>
       </c>
       <c r="S3">
-        <v>0.0008180896920233499</v>
+        <v>0.0008370671523374605</v>
       </c>
       <c r="T3">
-        <v>0.0008180896920233499</v>
+        <v>0.0006282695425556257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="H4">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="I4">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J4">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.976918479931924</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N4">
-        <v>0.976918479931924</v>
+        <v>0.407486</v>
       </c>
       <c r="O4">
-        <v>0.01391326492295064</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P4">
-        <v>0.01391326492295064</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q4">
-        <v>0.3179480133699599</v>
+        <v>0.050326150944</v>
       </c>
       <c r="R4">
-        <v>0.3179480133699599</v>
+        <v>0.301956905664</v>
       </c>
       <c r="S4">
-        <v>2.045058600068796E-05</v>
+        <v>2.638872391402745E-06</v>
       </c>
       <c r="T4">
-        <v>2.045058600068796E-05</v>
+        <v>1.980633388348378E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="H5">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="I5">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J5">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.08339691402928</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N5">
-        <v>6.08339691402928</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O5">
-        <v>0.08663968860763883</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P5">
-        <v>0.08663968860763883</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q5">
-        <v>1.979903137354243</v>
+        <v>0.5915237665439999</v>
       </c>
       <c r="R5">
-        <v>1.979903137354243</v>
+        <v>3.549142599264</v>
       </c>
       <c r="S5">
-        <v>0.0001273484270410617</v>
+        <v>3.101679161055778E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001273484270410617</v>
+        <v>2.327997869978803E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="H6">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="I6">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J6">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.4290998216986</v>
+        <v>11.373275</v>
       </c>
       <c r="N6">
-        <v>20.4290998216986</v>
+        <v>34.119825</v>
       </c>
       <c r="O6">
-        <v>0.2909510709394126</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P6">
-        <v>0.2909510709394126</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q6">
-        <v>6.648857439669171</v>
+        <v>4.2139348668</v>
       </c>
       <c r="R6">
-        <v>6.648857439669171</v>
+        <v>25.2836092008</v>
       </c>
       <c r="S6">
-        <v>0.0004276580609360563</v>
+        <v>0.0002209594052114506</v>
       </c>
       <c r="T6">
-        <v>0.0004276580609360563</v>
+        <v>0.0001658434022263433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="H7">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="I7">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="J7">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.64557892982294</v>
+        <v>23.4499775</v>
       </c>
       <c r="N7">
-        <v>3.64557892982294</v>
+        <v>46.899955</v>
       </c>
       <c r="O7">
-        <v>0.0519203050101867</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P7">
-        <v>0.0519203050101867</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q7">
-        <v>440.0688572964276</v>
+        <v>8.688498063479999</v>
       </c>
       <c r="R7">
-        <v>440.0688572964276</v>
+        <v>34.75399225392</v>
       </c>
       <c r="S7">
-        <v>0.02830546389322201</v>
+        <v>0.000455584963928323</v>
       </c>
       <c r="T7">
-        <v>0.02830546389322201</v>
+        <v>0.0002279627196640779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H8">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="I8">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J8">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.079904035637</v>
+        <v>4.713375</v>
       </c>
       <c r="N8">
-        <v>39.079904035637</v>
+        <v>9.42675</v>
       </c>
       <c r="O8">
-        <v>0.5565756705198114</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P8">
-        <v>0.5565756705198114</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q8">
-        <v>4717.453398561335</v>
+        <v>0.06394792975000001</v>
       </c>
       <c r="R8">
-        <v>4717.453398561335</v>
+        <v>0.3836875785</v>
       </c>
       <c r="S8">
-        <v>0.3034291216635459</v>
+        <v>3.353135956938428E-06</v>
       </c>
       <c r="T8">
-        <v>0.3034291216635459</v>
+        <v>2.516731409074847E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H9">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="I9">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J9">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.976918479931924</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N9">
-        <v>0.976918479931924</v>
+        <v>129.257158</v>
       </c>
       <c r="O9">
-        <v>0.01391326492295064</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P9">
-        <v>0.01391326492295064</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q9">
-        <v>117.9267840338009</v>
+        <v>0.5845583161017779</v>
       </c>
       <c r="R9">
-        <v>117.9267840338009</v>
+        <v>5.261024844916</v>
       </c>
       <c r="S9">
-        <v>0.007585113720656003</v>
+        <v>3.065155535622717E-05</v>
       </c>
       <c r="T9">
-        <v>0.007585113720656003</v>
+        <v>3.450877018976319E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H10">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="I10">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J10">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.08339691402928</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N10">
-        <v>6.08339691402928</v>
+        <v>0.407486</v>
       </c>
       <c r="O10">
-        <v>0.08663968860763883</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P10">
-        <v>0.08663968860763883</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q10">
-        <v>734.3452384303479</v>
+        <v>0.001842832796888889</v>
       </c>
       <c r="R10">
-        <v>734.3452384303479</v>
+        <v>0.016585495172</v>
       </c>
       <c r="S10">
-        <v>0.0472334778680974</v>
+        <v>9.662969447222091E-08</v>
       </c>
       <c r="T10">
-        <v>0.0472334778680974</v>
+        <v>1.087896480715276E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H11">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="I11">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J11">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4290998216986</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N11">
-        <v>20.4290998216986</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O11">
-        <v>0.2909510709394126</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P11">
-        <v>0.2909510709394126</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q11">
-        <v>2466.058419578971</v>
+        <v>0.02166029741355555</v>
       </c>
       <c r="R11">
-        <v>2466.058419578971</v>
+        <v>0.194942676722</v>
       </c>
       <c r="S11">
-        <v>0.1586181943953146</v>
+        <v>1.135766589775701E-06</v>
       </c>
       <c r="T11">
-        <v>0.1586181943953146</v>
+        <v>1.278692313661599E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H12">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="I12">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J12">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.64557892982294</v>
+        <v>11.373275</v>
       </c>
       <c r="N12">
-        <v>3.64557892982294</v>
+        <v>34.119825</v>
       </c>
       <c r="O12">
-        <v>0.0519203050101867</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P12">
-        <v>0.0519203050101867</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q12">
-        <v>365.9566230129483</v>
+        <v>0.1543050130166667</v>
       </c>
       <c r="R12">
-        <v>365.9566230129483</v>
+        <v>1.38874511715</v>
       </c>
       <c r="S12">
-        <v>0.02353852540899298</v>
+        <v>8.091046723557727E-06</v>
       </c>
       <c r="T12">
-        <v>0.02353852540899298</v>
+        <v>9.109230142905794E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="H13">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="I13">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="J13">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.079904035637</v>
+        <v>23.4499775</v>
       </c>
       <c r="N13">
-        <v>39.079904035637</v>
+        <v>46.899955</v>
       </c>
       <c r="O13">
-        <v>0.5565756705198114</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P13">
-        <v>0.5565756705198114</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q13">
-        <v>3922.984520114727</v>
+        <v>0.3181536614016667</v>
       </c>
       <c r="R13">
-        <v>3922.984520114727</v>
+        <v>1.90892196841</v>
       </c>
       <c r="S13">
-        <v>0.2523284591642421</v>
+        <v>1.668251788678964E-05</v>
       </c>
       <c r="T13">
-        <v>0.2523284591642421</v>
+        <v>1.252123900948863E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="H14">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="I14">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="J14">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.976918479931924</v>
+        <v>4.713375</v>
       </c>
       <c r="N14">
-        <v>0.976918479931924</v>
+        <v>9.42675</v>
       </c>
       <c r="O14">
-        <v>0.01391326492295064</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P14">
-        <v>0.01391326492295064</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q14">
-        <v>98.06667054996208</v>
+        <v>587.5408885663751</v>
       </c>
       <c r="R14">
-        <v>98.06667054996208</v>
+        <v>3525.24533139825</v>
       </c>
       <c r="S14">
-        <v>0.006307700616293949</v>
+        <v>0.03080794776821475</v>
       </c>
       <c r="T14">
-        <v>0.006307700616293949</v>
+        <v>0.02312322876051731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="H15">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="I15">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="J15">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.08339691402928</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N15">
-        <v>6.08339691402928</v>
+        <v>129.257158</v>
       </c>
       <c r="O15">
-        <v>0.08663968860763883</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P15">
-        <v>0.08663968860763883</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q15">
-        <v>610.6737596307295</v>
+        <v>5370.805807224783</v>
       </c>
       <c r="R15">
-        <v>610.6737596307295</v>
+        <v>48337.25226502305</v>
       </c>
       <c r="S15">
-        <v>0.03927886231250037</v>
+        <v>0.281620408046738</v>
       </c>
       <c r="T15">
-        <v>0.03927886231250037</v>
+        <v>0.3170597325025412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="H16">
+        <v>373.961899</v>
+      </c>
+      <c r="I16">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="J16">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1358286666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.407486</v>
+      </c>
+      <c r="O16">
+        <v>0.001610209036517091</v>
+      </c>
+      <c r="P16">
+        <v>0.00181184863887809</v>
+      </c>
+      <c r="Q16">
+        <v>16.93158204176823</v>
+      </c>
+      <c r="R16">
+        <v>152.384238375914</v>
+      </c>
+      <c r="S16">
+        <v>0.0008878144573883723</v>
+      </c>
+      <c r="T16">
+        <v>0.0009995376980091928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="H17">
+        <v>373.961899</v>
+      </c>
+      <c r="I17">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="J17">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.596503666666666</v>
+      </c>
+      <c r="N17">
+        <v>4.789510999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01892608308677601</v>
+      </c>
+      <c r="P17">
+        <v>0.02129611566100832</v>
+      </c>
+      <c r="Q17">
+        <v>199.0105143157099</v>
+      </c>
+      <c r="R17">
+        <v>1791.094628841389</v>
+      </c>
+      <c r="S17">
+        <v>0.01043519804268279</v>
+      </c>
+      <c r="T17">
+        <v>0.01174837123123176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="H18">
+        <v>373.961899</v>
+      </c>
+      <c r="I18">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="J18">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.373275</v>
+      </c>
+      <c r="N18">
+        <v>34.119825</v>
+      </c>
+      <c r="O18">
+        <v>0.1348268420004166</v>
+      </c>
+      <c r="P18">
+        <v>0.1517106317395165</v>
+      </c>
+      <c r="Q18">
+        <v>1417.723838949742</v>
+      </c>
+      <c r="R18">
+        <v>12759.51455054768</v>
+      </c>
+      <c r="S18">
+        <v>0.07433893168982791</v>
+      </c>
+      <c r="T18">
+        <v>0.08369379889610074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>100.383678438344</v>
-      </c>
-      <c r="H16">
-        <v>100.383678438344</v>
-      </c>
-      <c r="I16">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="J16">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>20.4290998216986</v>
-      </c>
-      <c r="N16">
-        <v>20.4290998216986</v>
-      </c>
-      <c r="O16">
-        <v>0.2909510709394126</v>
-      </c>
-      <c r="P16">
-        <v>0.2909510709394126</v>
-      </c>
-      <c r="Q16">
-        <v>2050.748187286223</v>
-      </c>
-      <c r="R16">
-        <v>2050.748187286223</v>
-      </c>
-      <c r="S16">
-        <v>0.1319052184831619</v>
-      </c>
-      <c r="T16">
-        <v>0.1319052184831619</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="H19">
+        <v>373.961899</v>
+      </c>
+      <c r="I19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="J19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.4499775</v>
+      </c>
+      <c r="N19">
+        <v>46.899955</v>
+      </c>
+      <c r="O19">
+        <v>0.277992610862379</v>
+      </c>
+      <c r="P19">
+        <v>0.2085362923638938</v>
+      </c>
+      <c r="Q19">
+        <v>2923.132705802424</v>
+      </c>
+      <c r="R19">
+        <v>17538.79623481454</v>
+      </c>
+      <c r="S19">
+        <v>0.1532756638259869</v>
+      </c>
+      <c r="T19">
+        <v>0.1150426592752505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H20">
+        <v>301.895584</v>
+      </c>
+      <c r="I20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.713375</v>
+      </c>
+      <c r="N20">
+        <v>9.42675</v>
+      </c>
+      <c r="O20">
+        <v>0.05587567929323027</v>
+      </c>
+      <c r="P20">
+        <v>0.0419151680218315</v>
+      </c>
+      <c r="Q20">
+        <v>474.315699412</v>
+      </c>
+      <c r="R20">
+        <v>2845.894196472</v>
+      </c>
+      <c r="S20">
+        <v>0.02487093847848572</v>
+      </c>
+      <c r="T20">
+        <v>0.0186671440841677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H21">
+        <v>301.895584</v>
+      </c>
+      <c r="I21">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J21">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>43.08571933333334</v>
+      </c>
+      <c r="N21">
+        <v>129.257158</v>
+      </c>
+      <c r="O21">
+        <v>0.510768575720681</v>
+      </c>
+      <c r="P21">
+        <v>0.5747299435748717</v>
+      </c>
+      <c r="Q21">
+        <v>4335.79613339892</v>
+      </c>
+      <c r="R21">
+        <v>39022.16520059027</v>
+      </c>
+      <c r="S21">
+        <v>0.2273492507684273</v>
+      </c>
+      <c r="T21">
+        <v>0.2559590518785403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H22">
+        <v>301.895584</v>
+      </c>
+      <c r="I22">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J22">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1358286666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.407486</v>
+      </c>
+      <c r="O22">
+        <v>0.001610209036517091</v>
+      </c>
+      <c r="P22">
+        <v>0.00181184863887809</v>
+      </c>
+      <c r="Q22">
+        <v>13.66869154909156</v>
+      </c>
+      <c r="R22">
+        <v>123.018223941824</v>
+      </c>
+      <c r="S22">
+        <v>0.0007167234544846125</v>
+      </c>
+      <c r="T22">
+        <v>0.0008069164743184195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H23">
+        <v>301.895584</v>
+      </c>
+      <c r="I23">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J23">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.596503666666666</v>
+      </c>
+      <c r="N23">
+        <v>4.789510999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.01892608308677601</v>
+      </c>
+      <c r="P23">
+        <v>0.02129611566100832</v>
+      </c>
+      <c r="Q23">
+        <v>160.6591356021582</v>
+      </c>
+      <c r="R23">
+        <v>1445.932220419424</v>
+      </c>
+      <c r="S23">
+        <v>0.008424227750676219</v>
+      </c>
+      <c r="T23">
+        <v>0.009484338921654453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H24">
+        <v>301.895584</v>
+      </c>
+      <c r="I24">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J24">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.373275</v>
+      </c>
+      <c r="N24">
+        <v>34.119825</v>
+      </c>
+      <c r="O24">
+        <v>0.1348268420004166</v>
+      </c>
+      <c r="P24">
+        <v>0.1517106317395165</v>
+      </c>
+      <c r="Q24">
+        <v>1144.513832705867</v>
+      </c>
+      <c r="R24">
+        <v>10300.6244943528</v>
+      </c>
+      <c r="S24">
+        <v>0.06001305281754573</v>
+      </c>
+      <c r="T24">
+        <v>0.06756514062657727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="H25">
+        <v>301.895584</v>
+      </c>
+      <c r="I25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="J25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.4499775</v>
+      </c>
+      <c r="N25">
+        <v>46.899955</v>
+      </c>
+      <c r="O25">
+        <v>0.277992610862379</v>
+      </c>
+      <c r="P25">
+        <v>0.2085362923638938</v>
+      </c>
+      <c r="Q25">
+        <v>2359.814884049787</v>
+      </c>
+      <c r="R25">
+        <v>14158.88930429872</v>
+      </c>
+      <c r="S25">
+        <v>0.1237378625134589</v>
+      </c>
+      <c r="T25">
+        <v>0.09287275227686968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.236532</v>
+      </c>
+      <c r="I26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.713375</v>
+      </c>
+      <c r="N26">
+        <v>9.42675</v>
+      </c>
+      <c r="O26">
+        <v>0.05587567929323027</v>
+      </c>
+      <c r="P26">
+        <v>0.0419151680218315</v>
+      </c>
+      <c r="Q26">
+        <v>1.9427463385</v>
+      </c>
+      <c r="R26">
+        <v>11.656478031</v>
+      </c>
+      <c r="S26">
+        <v>0.0001018687020565326</v>
+      </c>
+      <c r="T26">
+        <v>7.64586242132116E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.236532</v>
+      </c>
+      <c r="I27">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J27">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>43.08571933333334</v>
+      </c>
+      <c r="N27">
+        <v>129.257158</v>
+      </c>
+      <c r="O27">
+        <v>0.510768575720681</v>
+      </c>
+      <c r="P27">
+        <v>0.5747299435748717</v>
+      </c>
+      <c r="Q27">
+        <v>17.75895689956178</v>
+      </c>
+      <c r="R27">
+        <v>159.830612096056</v>
+      </c>
+      <c r="S27">
+        <v>0.0009311981978218833</v>
+      </c>
+      <c r="T27">
+        <v>0.001048380881044869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.236532</v>
+      </c>
+      <c r="I28">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J28">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.1358286666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.407486</v>
+      </c>
+      <c r="O28">
+        <v>0.001610209036517091</v>
+      </c>
+      <c r="P28">
+        <v>0.00181184863887809</v>
+      </c>
+      <c r="Q28">
+        <v>0.0559854976168889</v>
+      </c>
+      <c r="R28">
+        <v>0.503869478552</v>
+      </c>
+      <c r="S28">
+        <v>2.93562255823115E-06</v>
+      </c>
+      <c r="T28">
+        <v>3.30504351405784E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.236532</v>
+      </c>
+      <c r="I29">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J29">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.596503666666666</v>
+      </c>
+      <c r="N29">
+        <v>4.789510999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.01892608308677601</v>
+      </c>
+      <c r="P29">
+        <v>0.02129611566100832</v>
+      </c>
+      <c r="Q29">
+        <v>0.6580426239835554</v>
+      </c>
+      <c r="R29">
+        <v>5.922383615851999</v>
+      </c>
+      <c r="S29">
+        <v>3.450473521666077E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.884683710865815E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.236532</v>
+      </c>
+      <c r="I30">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J30">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.373275</v>
+      </c>
+      <c r="N30">
+        <v>34.119825</v>
+      </c>
+      <c r="O30">
+        <v>0.1348268420004166</v>
+      </c>
+      <c r="P30">
+        <v>0.1517106317395165</v>
+      </c>
+      <c r="Q30">
+        <v>4.687806160766667</v>
+      </c>
+      <c r="R30">
+        <v>42.1902554469</v>
+      </c>
+      <c r="S30">
+        <v>0.0002458070411079132</v>
+      </c>
+      <c r="T30">
+        <v>0.0002767395844692542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.236532</v>
+      </c>
+      <c r="I31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="J31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.4499775</v>
+      </c>
+      <c r="N31">
+        <v>46.899955</v>
+      </c>
+      <c r="O31">
+        <v>0.277992610862379</v>
+      </c>
+      <c r="P31">
+        <v>0.2085362923638938</v>
+      </c>
+      <c r="Q31">
+        <v>9.665549192676666</v>
+      </c>
+      <c r="R31">
+        <v>57.99329515605999</v>
+      </c>
+      <c r="S31">
+        <v>0.000506817041118072</v>
+      </c>
+      <c r="T31">
+        <v>0.0003803968531001176</v>
       </c>
     </row>
   </sheetData>
